--- a/Sop normal sidde regner.xlsx
+++ b/Sop normal sidde regner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Documents\jesper\skole\GYM\SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E092B1D-0B5A-42EC-95BC-D01D6D86A91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB55CFF9-BA4D-49F4-AAA9-209773FAC71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{45464503-C1A5-442F-9C59-8DE0B9CC3016}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45464503-C1A5-442F-9C59-8DE0B9CC3016}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,31 +498,31 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4119</v>
+        <v>5863</v>
       </c>
       <c r="C2" s="4">
         <f>A2/C11</f>
-        <v>1.7162500000000001</v>
+        <v>2.4429166666666666</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5">
         <f>H11-$A$2</f>
-        <v>31881</v>
+        <v>30137</v>
       </c>
       <c r="F2" s="4">
         <f>B11-$C$2</f>
-        <v>13.28375</v>
+        <v>12.557083333333333</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1">
         <f>$A$2/(B11*$C$11)</f>
-        <v>0.11441666666666667</v>
+        <v>0.16286111111111112</v>
       </c>
       <c r="I2" s="3">
         <f>H2</f>
-        <v>0.11441666666666667</v>
+        <v>0.16286111111111112</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -531,19 +531,19 @@
       </c>
       <c r="E3" s="5">
         <f>H12-$A$2</f>
-        <v>43881</v>
+        <v>42137</v>
       </c>
       <c r="F3" s="4">
         <f>B12-$C$2</f>
-        <v>18.283750000000001</v>
+        <v>17.557083333333335</v>
       </c>
       <c r="H3" s="1">
         <f>$A$2/(B12*$C$11)</f>
-        <v>8.58125E-2</v>
+        <v>0.12214583333333333</v>
       </c>
       <c r="I3" s="3">
         <f>H3</f>
-        <v>8.58125E-2</v>
+        <v>0.12214583333333333</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
       </c>
       <c r="E9" s="6">
         <f>E2/$A$2</f>
-        <v>7.739985433357611</v>
+        <v>5.1402012621524813</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
       </c>
       <c r="E10" s="6">
         <f>E3/$A$2</f>
-        <v>10.653313911143481</v>
+        <v>7.186935016203309</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -668,9 +668,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,27 +862,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -904,9 +895,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sop normal sidde regner.xlsx
+++ b/Sop normal sidde regner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Documents\jesper\skole\GYM\SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB55CFF9-BA4D-49F4-AAA9-209773FAC71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC03FD97-2EF2-4ED7-BBA8-3824B92C1BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45464503-C1A5-442F-9C59-8DE0B9CC3016}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,31 +498,31 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5863</v>
+        <v>9362</v>
       </c>
       <c r="C2" s="4">
         <f>A2/C11</f>
-        <v>2.4429166666666666</v>
+        <v>3.9008333333333334</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5">
         <f>H11-$A$2</f>
-        <v>30137</v>
+        <v>26638</v>
       </c>
       <c r="F2" s="4">
         <f>B11-$C$2</f>
-        <v>12.557083333333333</v>
+        <v>11.099166666666667</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1">
         <f>$A$2/(B11*$C$11)</f>
-        <v>0.16286111111111112</v>
+        <v>0.26005555555555554</v>
       </c>
       <c r="I2" s="3">
         <f>H2</f>
-        <v>0.16286111111111112</v>
+        <v>0.26005555555555554</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -531,19 +531,19 @@
       </c>
       <c r="E3" s="5">
         <f>H12-$A$2</f>
-        <v>42137</v>
+        <v>38638</v>
       </c>
       <c r="F3" s="4">
         <f>B12-$C$2</f>
-        <v>17.557083333333335</v>
+        <v>16.099166666666665</v>
       </c>
       <c r="H3" s="1">
         <f>$A$2/(B12*$C$11)</f>
-        <v>0.12214583333333333</v>
+        <v>0.19504166666666667</v>
       </c>
       <c r="I3" s="3">
         <f>H3</f>
-        <v>0.12214583333333333</v>
+        <v>0.19504166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
       </c>
       <c r="E9" s="6">
         <f>E2/$A$2</f>
-        <v>5.1402012621524813</v>
+        <v>2.8453321939756462</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
       </c>
       <c r="E10" s="6">
         <f>E3/$A$2</f>
-        <v>7.186935016203309</v>
+        <v>4.1271095919675282</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -583,12 +583,9 @@
       <c r="L10" t="s">
         <v>8</v>
       </c>
-      <c r="M10">
-        <v>1159</v>
-      </c>
       <c r="N10" s="2">
         <f>M10/$C$11</f>
-        <v>0.48291666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -608,12 +605,9 @@
       <c r="L11" t="s">
         <v>9</v>
       </c>
-      <c r="M11">
-        <v>2844</v>
-      </c>
       <c r="N11" s="2">
         <f>M11/$C$11</f>
-        <v>1.1850000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -630,36 +624,27 @@
       <c r="L12" t="s">
         <v>10</v>
       </c>
-      <c r="M12">
-        <v>5929</v>
-      </c>
       <c r="N12" s="2">
         <f>M12/$C$11</f>
-        <v>2.4704166666666665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>11</v>
       </c>
-      <c r="M13">
-        <v>5490</v>
-      </c>
       <c r="N13" s="2">
         <f>M13/$C$11</f>
-        <v>2.2875000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>12</v>
       </c>
-      <c r="M14">
-        <v>827</v>
-      </c>
       <c r="N14" s="2">
         <f>M14/$C$11</f>
-        <v>0.34458333333333335</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -668,12 +653,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,15 +844,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -895,18 +889,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sop normal sidde regner.xlsx
+++ b/Sop normal sidde regner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Documents\jesper\skole\GYM\SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC03FD97-2EF2-4ED7-BBA8-3824B92C1BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0493587C-46AE-4FBE-875D-C4C006869CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45464503-C1A5-442F-9C59-8DE0B9CC3016}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,31 +498,31 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9362</v>
+        <v>10296</v>
       </c>
       <c r="C2" s="4">
         <f>A2/C11</f>
-        <v>3.9008333333333334</v>
+        <v>4.29</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5">
         <f>H11-$A$2</f>
-        <v>26638</v>
+        <v>25704</v>
       </c>
       <c r="F2" s="4">
         <f>B11-$C$2</f>
-        <v>11.099166666666667</v>
+        <v>10.71</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1">
         <f>$A$2/(B11*$C$11)</f>
-        <v>0.26005555555555554</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="I2" s="3">
         <f>H2</f>
-        <v>0.26005555555555554</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -531,19 +531,19 @@
       </c>
       <c r="E3" s="5">
         <f>H12-$A$2</f>
-        <v>38638</v>
+        <v>37704</v>
       </c>
       <c r="F3" s="4">
         <f>B12-$C$2</f>
-        <v>16.099166666666665</v>
+        <v>15.71</v>
       </c>
       <c r="H3" s="1">
         <f>$A$2/(B12*$C$11)</f>
-        <v>0.19504166666666667</v>
+        <v>0.2145</v>
       </c>
       <c r="I3" s="3">
         <f>H3</f>
-        <v>0.19504166666666667</v>
+        <v>0.2145</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
       </c>
       <c r="E9" s="6">
         <f>E2/$A$2</f>
-        <v>2.8453321939756462</v>
+        <v>2.4965034965034967</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
       </c>
       <c r="E10" s="6">
         <f>E3/$A$2</f>
-        <v>4.1271095919675282</v>
+        <v>3.6620046620046618</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -653,9 +653,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -844,27 +847,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -889,9 +880,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sop normal sidde regner.xlsx
+++ b/Sop normal sidde regner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Documents\jesper\skole\GYM\SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0493587C-46AE-4FBE-875D-C4C006869CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C814C2E-5E5A-4087-9F09-C3E9794F14D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45464503-C1A5-442F-9C59-8DE0B9CC3016}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,31 +498,31 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10296</v>
+        <v>23722</v>
       </c>
       <c r="C2" s="4">
         <f>A2/C11</f>
-        <v>4.29</v>
+        <v>9.8841666666666672</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5">
         <f>H11-$A$2</f>
-        <v>25704</v>
+        <v>12278</v>
       </c>
       <c r="F2" s="4">
         <f>B11-$C$2</f>
-        <v>10.71</v>
+        <v>5.1158333333333328</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1">
         <f>$A$2/(B11*$C$11)</f>
-        <v>0.28599999999999998</v>
+        <v>0.65894444444444444</v>
       </c>
       <c r="I2" s="3">
         <f>H2</f>
-        <v>0.28599999999999998</v>
+        <v>0.65894444444444444</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -531,19 +531,19 @@
       </c>
       <c r="E3" s="5">
         <f>H12-$A$2</f>
-        <v>37704</v>
+        <v>24278</v>
       </c>
       <c r="F3" s="4">
         <f>B12-$C$2</f>
-        <v>15.71</v>
+        <v>10.115833333333333</v>
       </c>
       <c r="H3" s="1">
         <f>$A$2/(B12*$C$11)</f>
-        <v>0.2145</v>
+        <v>0.49420833333333336</v>
       </c>
       <c r="I3" s="3">
         <f>H3</f>
-        <v>0.2145</v>
+        <v>0.49420833333333336</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
       </c>
       <c r="E9" s="6">
         <f>E2/$A$2</f>
-        <v>2.4965034965034967</v>
+        <v>0.5175786190034567</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
       </c>
       <c r="E10" s="6">
         <f>E3/$A$2</f>
-        <v>3.6620046620046618</v>
+        <v>1.0234381586712755</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -653,12 +653,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,15 +844,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -880,18 +889,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sop normal sidde regner.xlsx
+++ b/Sop normal sidde regner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Documents\jesper\skole\GYM\SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C814C2E-5E5A-4087-9F09-C3E9794F14D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC9378-A387-4F0F-AA62-7093A7F4FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45464503-C1A5-442F-9C59-8DE0B9CC3016}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,31 +498,31 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>23722</v>
+        <v>27300</v>
       </c>
       <c r="C2" s="4">
         <f>A2/C11</f>
-        <v>9.8841666666666672</v>
+        <v>11.375</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5">
         <f>H11-$A$2</f>
-        <v>12278</v>
+        <v>8700</v>
       </c>
       <c r="F2" s="4">
         <f>B11-$C$2</f>
-        <v>5.1158333333333328</v>
+        <v>3.625</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1">
         <f>$A$2/(B11*$C$11)</f>
-        <v>0.65894444444444444</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="I2" s="3">
         <f>H2</f>
-        <v>0.65894444444444444</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -531,19 +531,19 @@
       </c>
       <c r="E3" s="5">
         <f>H12-$A$2</f>
-        <v>24278</v>
+        <v>20700</v>
       </c>
       <c r="F3" s="4">
         <f>B12-$C$2</f>
-        <v>10.115833333333333</v>
+        <v>8.625</v>
       </c>
       <c r="H3" s="1">
         <f>$A$2/(B12*$C$11)</f>
-        <v>0.49420833333333336</v>
+        <v>0.56874999999999998</v>
       </c>
       <c r="I3" s="3">
         <f>H3</f>
-        <v>0.49420833333333336</v>
+        <v>0.56874999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
       </c>
       <c r="E9" s="6">
         <f>E2/$A$2</f>
-        <v>0.5175786190034567</v>
+        <v>0.31868131868131866</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
       </c>
       <c r="E10" s="6">
         <f>E3/$A$2</f>
-        <v>1.0234381586712755</v>
+        <v>0.75824175824175821</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -653,9 +653,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -844,27 +847,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -889,9 +880,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sop normal sidde regner.xlsx
+++ b/Sop normal sidde regner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Documents\jesper\skole\GYM\SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC9378-A387-4F0F-AA62-7093A7F4FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBC38B4-CC49-4EA2-935B-B1D8316C5897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45464503-C1A5-442F-9C59-8DE0B9CC3016}"/>
   </bookViews>
@@ -498,31 +498,31 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>27300</v>
+        <v>28623</v>
       </c>
       <c r="C2" s="4">
         <f>A2/C11</f>
-        <v>11.375</v>
+        <v>11.92625</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5">
         <f>H11-$A$2</f>
-        <v>8700</v>
+        <v>7377</v>
       </c>
       <c r="F2" s="4">
         <f>B11-$C$2</f>
-        <v>3.625</v>
+        <v>3.0737500000000004</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1">
         <f>$A$2/(B11*$C$11)</f>
-        <v>0.7583333333333333</v>
+        <v>0.79508333333333336</v>
       </c>
       <c r="I2" s="3">
         <f>H2</f>
-        <v>0.7583333333333333</v>
+        <v>0.79508333333333336</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -531,19 +531,19 @@
       </c>
       <c r="E3" s="5">
         <f>H12-$A$2</f>
-        <v>20700</v>
+        <v>19377</v>
       </c>
       <c r="F3" s="4">
         <f>B12-$C$2</f>
-        <v>8.625</v>
+        <v>8.0737500000000004</v>
       </c>
       <c r="H3" s="1">
         <f>$A$2/(B12*$C$11)</f>
-        <v>0.56874999999999998</v>
+        <v>0.59631250000000002</v>
       </c>
       <c r="I3" s="3">
         <f>H3</f>
-        <v>0.56874999999999998</v>
+        <v>0.59631250000000002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
       </c>
       <c r="E9" s="6">
         <f>E2/$A$2</f>
-        <v>0.31868131868131866</v>
+        <v>0.25772979771512422</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
       </c>
       <c r="E10" s="6">
         <f>E3/$A$2</f>
-        <v>0.75824175824175821</v>
+        <v>0.67697306362016563</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -653,12 +653,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,15 +844,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -880,18 +889,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sop normal sidde regner.xlsx
+++ b/Sop normal sidde regner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Documents\jesper\skole\GYM\SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBC38B4-CC49-4EA2-935B-B1D8316C5897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54EC966-6AE7-44A5-8F17-099D992E25E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45464503-C1A5-442F-9C59-8DE0B9CC3016}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">antal </t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>maks</t>
+  </si>
+  <si>
+    <t>Rsumee</t>
+  </si>
+  <si>
+    <t>alt andet</t>
   </si>
 </sst>
 </file>
@@ -461,189 +467,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025D0E2C-8614-402A-BF04-8F07616860C6}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>28623</v>
-      </c>
-      <c r="C2" s="4">
-        <f>A2/C11</f>
-        <v>11.92625</v>
-      </c>
-      <c r="D2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B2">
+        <f>A2+A4</f>
+        <v>36995</v>
+      </c>
+      <c r="D2" s="4">
+        <f>B2/D11</f>
+        <v>15.414583333333333</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5">
-        <f>H11-$A$2</f>
-        <v>7377</v>
-      </c>
-      <c r="F2" s="4">
-        <f>B11-$C$2</f>
-        <v>3.0737500000000004</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1">
-        <f>$A$2/(B11*$C$11)</f>
-        <v>0.79508333333333336</v>
-      </c>
-      <c r="I2" s="3">
-        <f>H2</f>
-        <v>0.79508333333333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+      <c r="F2" s="5">
+        <f>I11-$B$2</f>
+        <v>-995</v>
+      </c>
+      <c r="G2" s="4">
+        <f>C11-$D$2</f>
+        <v>-0.41458333333333286</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="1">
+        <f>$B$2/(C11*$D$11)</f>
+        <v>1.027638888888889</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2</f>
+        <v>1.027638888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5">
-        <f>H12-$A$2</f>
-        <v>19377</v>
-      </c>
-      <c r="F3" s="4">
-        <f>B12-$C$2</f>
-        <v>8.0737500000000004</v>
-      </c>
-      <c r="H3" s="1">
-        <f>$A$2/(B12*$C$11)</f>
-        <v>0.59631250000000002</v>
-      </c>
-      <c r="I3" s="3">
-        <f>H3</f>
-        <v>0.59631250000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="F3" s="5">
+        <f>I12-$B$2</f>
+        <v>11005</v>
+      </c>
+      <c r="G3" s="4">
+        <f>C12-$D$2</f>
+        <v>4.5854166666666671</v>
+      </c>
+      <c r="I3" s="1">
+        <f>$B$2/(C12*$D$11)</f>
+        <v>0.77072916666666669</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3</f>
+        <v>0.77072916666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>35468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6">
-        <f>E2/$A$2</f>
-        <v>0.25772979771512422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="F9" s="6">
+        <f>F2/$B$2</f>
+        <v>-2.6895526422489525E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6">
-        <f>E3/$A$2</f>
-        <v>0.67697306362016563</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F10" s="6">
+        <f>F3/$B$2</f>
+        <v>0.29747263143668062</v>
+      </c>
+      <c r="I10" t="s">
         <v>6</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="2">
-        <f>M10/$C$11</f>
+      <c r="O10" s="2">
+        <f>N10/$D$11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2400</v>
       </c>
-      <c r="H11">
-        <f>B11*$C$11</f>
+      <c r="I11">
+        <f>C11*$D$11</f>
         <v>36000</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="2">
-        <f>M11/$C$11</f>
+      <c r="O11" s="2">
+        <f>N11/$D$11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>20</v>
       </c>
-      <c r="H12">
-        <f>B12*$C$11</f>
+      <c r="I12">
+        <f>C12*$D$11</f>
         <v>48000</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="2">
-        <f>M12/$C$11</f>
+      <c r="O12" s="2">
+        <f>N12/$D$11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="2">
-        <f>M13/$C$11</f>
+      <c r="O13" s="2">
+        <f>N13/$D$11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L14" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="2">
-        <f>M14/$C$11</f>
+      <c r="O14" s="2">
+        <f>N14/$D$11</f>
         <v>0</v>
       </c>
     </row>
@@ -653,9 +674,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -844,27 +868,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -889,9 +901,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sop normal sidde regner.xlsx
+++ b/Sop normal sidde regner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Documents\jesper\skole\GYM\SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54EC966-6AE7-44A5-8F17-099D992E25E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA590F0-FB20-4D35-8B00-C40BADB0BE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45464503-C1A5-442F-9C59-8DE0B9CC3016}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,35 +507,35 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1527</v>
+        <v>1596</v>
       </c>
       <c r="B2">
         <f>A2+A4</f>
-        <v>36995</v>
+        <v>37996</v>
       </c>
       <c r="D2" s="4">
         <f>B2/D11</f>
-        <v>15.414583333333333</v>
+        <v>15.831666666666667</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="5">
         <f>I11-$B$2</f>
-        <v>-995</v>
+        <v>-1996</v>
       </c>
       <c r="G2" s="4">
         <f>C11-$D$2</f>
-        <v>-0.41458333333333286</v>
+        <v>-0.831666666666667</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1">
         <f>$B$2/(C11*$D$11)</f>
-        <v>1.027638888888889</v>
+        <v>1.0554444444444444</v>
       </c>
       <c r="J2" s="3">
         <f>I2</f>
-        <v>1.027638888888889</v>
+        <v>1.0554444444444444</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -547,24 +547,24 @@
       </c>
       <c r="F3" s="5">
         <f>I12-$B$2</f>
-        <v>11005</v>
+        <v>10004</v>
       </c>
       <c r="G3" s="4">
         <f>C12-$D$2</f>
-        <v>4.5854166666666671</v>
+        <v>4.168333333333333</v>
       </c>
       <c r="I3" s="1">
         <f>$B$2/(C12*$D$11)</f>
-        <v>0.77072916666666669</v>
+        <v>0.79158333333333331</v>
       </c>
       <c r="J3" s="3">
         <f>I3</f>
-        <v>0.77072916666666669</v>
+        <v>0.79158333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>35468</v>
+        <v>36400</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
       </c>
       <c r="F9" s="6">
         <f>F2/$B$2</f>
-        <v>-2.6895526422489525E-2</v>
+        <v>-5.2531845457416571E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
       </c>
       <c r="F10" s="6">
         <f>F3/$B$2</f>
-        <v>0.29747263143668062</v>
+        <v>0.26329087272344459</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
@@ -674,12 +674,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,15 +865,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -901,18 +910,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0A5C31-613E-4D05-8D09-1D39BFC4FF1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C291B9CE-2F6B-47AD-B544-B313D4AE790E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="50f56c0a-36f1-48e7-b75a-9007ca042298"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="26440267-24bc-4d6f-a3b3-68d1cc1d60db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>